--- a/Horas.xlsx
+++ b/Horas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Atención temprana</t>
   </si>
@@ -50,6 +50,30 @@
   </si>
   <si>
     <t>COORDINACIONES</t>
+  </si>
+  <si>
+    <t>Horas/Mes</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Horas/Mes Privadas</t>
+  </si>
+  <si>
+    <t>TOTAL DE COORDINACIONES</t>
+  </si>
+  <si>
+    <t>Total generado</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>-15%</t>
+  </si>
+  <si>
+    <t>TOTAL EUR</t>
   </si>
   <si>
     <t>Laia González</t>
@@ -459,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,109 +520,145 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1">
+        <f>SUMA(G2:G36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1">
+        <f>G38*40</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -632,33 +692,102 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="F53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1">
+        <f>SUMA(G40:G51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1">
+        <f>G53*45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="F58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="1">
+        <f>G39+G53+B71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59">
+        <f>G58/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="1">
+        <f>G58-G59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B62">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="B63">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="B64">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="1">
+        <f>SUMA(B60:B69)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Horas.xlsx
+++ b/Horas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Atención temprana</t>
   </si>
@@ -79,21 +79,9 @@
     <t>Laia González</t>
   </si>
   <si>
-    <t>Martín</t>
-  </si>
-  <si>
     <t>Luisito cara pito</t>
   </si>
   <si>
-    <t>Miguel</t>
-  </si>
-  <si>
-    <t>Miguel Lolo</t>
-  </si>
-  <si>
-    <t>Raul</t>
-  </si>
-  <si>
     <t>Victor</t>
   </si>
   <si>
@@ -124,7 +112,7 @@
     <t>2023-01-13 --&gt; 15:00</t>
   </si>
   <si>
-    <t>2023-01-12 --&gt; 0:00</t>
+    <t>2023-01-12 --&gt; 12:30</t>
   </si>
   <si>
     <t>2023-01-06 --&gt; 12:00</t>
@@ -137,6 +125,9 @@
   </si>
   <si>
     <t>Coordinación para hablar del tiempo</t>
+  </si>
+  <si>
+    <t>asdfasd</t>
   </si>
 </sst>
 </file>
@@ -483,13 +474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,129 +509,118 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="W2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>21</v>
       </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -648,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="1">
-        <f>SUMA(G2:G36)</f>
+        <f>SUMA(G2:G37)</f>
         <v>0</v>
       </c>
     </row>
@@ -692,13 +672,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -709,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="G53" s="1">
-        <f>SUMA(G40:G51)</f>
+        <f>SUMA(G42:G52)</f>
         <v>0</v>
       </c>
     </row>
@@ -759,7 +739,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B62">
         <v>36.28</v>
@@ -767,7 +747,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B63">
         <v>36.28</v>
@@ -775,9 +755,17 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B64">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65">
         <v>36.28</v>
       </c>
     </row>

--- a/Horas.xlsx
+++ b/Horas.xlsx
@@ -7,14 +7,140 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="01" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+  <si>
+    <t>Laia González</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Ortzi Aguado García</t>
+  </si>
+  <si>
+    <t>Jon Bahillo Palomino</t>
+  </si>
+  <si>
+    <t>Oihan Bilbao Benavidez</t>
+  </si>
+  <si>
+    <t>Celia Cano Tejerizo</t>
+  </si>
+  <si>
+    <t>Markel A. Cheretti Benitez</t>
+  </si>
+  <si>
+    <t>Unai de Jesus Grazina</t>
+  </si>
+  <si>
+    <t>Maite Delgadillo Loza</t>
+  </si>
+  <si>
+    <t>Markel Elguezabal Zarkhov</t>
+  </si>
+  <si>
+    <t>Julen J. Elguezua Jerez</t>
+  </si>
+  <si>
+    <t>Daniel O. Emmanuel Omuemu</t>
+  </si>
+  <si>
+    <t>Octavio J. Espinoza Ruiz</t>
+  </si>
+  <si>
+    <t>Asier Euba Martin</t>
+  </si>
+  <si>
+    <t>Martín Frias Nuñez</t>
+  </si>
+  <si>
+    <t>Thiago Fuentes Cueto</t>
+  </si>
+  <si>
+    <t>Marcos Gonçalves Gonçalves</t>
+  </si>
+  <si>
+    <t>Pablo Loizaga Fernandez</t>
+  </si>
+  <si>
+    <t>José Lopez Alfaro</t>
+  </si>
+  <si>
+    <t>Erick Lopez Zapata</t>
+  </si>
+  <si>
+    <t>Laia Marin Alvarez</t>
+  </si>
+  <si>
+    <t>Heliam Marin Calderon</t>
+  </si>
+  <si>
+    <t>Xareli Marin Calderon</t>
+  </si>
+  <si>
+    <t>Ricardo F. Molina Rojas</t>
+  </si>
+  <si>
+    <t>Nerea Ocampos Perez</t>
+  </si>
+  <si>
+    <t>Marco Peña Ruiz</t>
+  </si>
+  <si>
+    <t>Abdur Rahman</t>
+  </si>
+  <si>
+    <t>Mateo Rico Robayo</t>
+  </si>
+  <si>
+    <t>Kerim A. Rosario Fuñez</t>
+  </si>
+  <si>
+    <t>Miah C. Serrano Rabasot</t>
+  </si>
+  <si>
+    <t>Einar Sobrino Gonzalez</t>
+  </si>
+  <si>
+    <t>Kai Solaun Gomez</t>
+  </si>
+  <si>
+    <t>Eneko Torres Zabaleta</t>
+  </si>
+  <si>
+    <t>Mario Torres Zabaleta</t>
+  </si>
+  <si>
+    <t>Georgian Tudor</t>
+  </si>
+  <si>
+    <t>Eneko Zorroza Beraza</t>
+  </si>
+  <si>
+    <t>Ariana Zurita Sandoval</t>
+  </si>
+  <si>
+    <t>Iulia Martínez Iraizoz</t>
+  </si>
+  <si>
+    <t>Naroa Varela Oca</t>
+  </si>
+  <si>
+    <t>Babacar Wade</t>
+  </si>
+  <si>
+    <t>Garazi Zarraga Moreno</t>
+  </si>
+  <si>
+    <t>Edgar</t>
+  </si>
   <si>
     <t>Atención temprana</t>
   </si>
@@ -49,18 +175,39 @@
     <t>Prescripción - BONO</t>
   </si>
   <si>
+    <t>Aritz Bilbao Molina</t>
+  </si>
+  <si>
+    <t>Chloé Flores Brun</t>
+  </si>
+  <si>
+    <t>Paula Flores Brun</t>
+  </si>
+  <si>
+    <t>Ager Gallastegui Iturbe</t>
+  </si>
+  <si>
+    <t>Markel González Rodríguez</t>
+  </si>
+  <si>
+    <t>Horas/Mes</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Horas/Mes Privadas</t>
+  </si>
+  <si>
+    <t>2023-01-13 --&gt; 10:30</t>
+  </si>
+  <si>
+    <t>2023-01-27 --&gt; 0:00</t>
+  </si>
+  <si>
     <t>COORDINACIONES</t>
   </si>
   <si>
-    <t>Horas/Mes</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Horas/Mes Privadas</t>
-  </si>
-  <si>
     <t>TOTAL DE COORDINACIONES</t>
   </si>
   <si>
@@ -74,60 +221,6 @@
   </si>
   <si>
     <t>TOTAL EUR</t>
-  </si>
-  <si>
-    <t>Laia González</t>
-  </si>
-  <si>
-    <t>Luisito cara pito</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>Jose Maria que vive en Abando</t>
-  </si>
-  <si>
-    <t>2023-01-12 --&gt; 3:00</t>
-  </si>
-  <si>
-    <t>2023-01-12 --&gt; 12:00</t>
-  </si>
-  <si>
-    <t>2023-01-13 --&gt; 13:00</t>
-  </si>
-  <si>
-    <t>2023-01-14 --&gt; 14:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 --&gt; 0:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 --&gt; 4:00</t>
-  </si>
-  <si>
-    <t>2023-01-12 --&gt; 14:00</t>
-  </si>
-  <si>
-    <t>2023-01-13 --&gt; 15:00</t>
-  </si>
-  <si>
-    <t>2023-01-12 --&gt; 12:30</t>
-  </si>
-  <si>
-    <t>2023-01-06 --&gt; 12:00</t>
-  </si>
-  <si>
-    <t>Cita en enero con los padres de lalalala</t>
-  </si>
-  <si>
-    <t>Coordinación poco importante</t>
-  </si>
-  <si>
-    <t>Coordinación para hablar del tiempo</t>
-  </si>
-  <si>
-    <t>asdfasd</t>
   </si>
 </sst>
 </file>
@@ -474,307 +567,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="1">
+        <f>G53+G44+B57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5">
+        <f>L4/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="1">
+        <f>L4-L5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="F38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="1">
-        <f>SUMA(G2:G37)</f>
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="F39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="1">
-        <f>G38*40</f>
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>8</v>
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="F44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="1">
+        <f>SUMA(G2:G43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="F45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="1">
+        <f>G44*40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="F53" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G53" s="1">
-        <f>SUMA(G42:G52)</f>
+        <f>SUMA(G48:G52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="F54" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="G54" s="1">
         <f>G53*45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="F58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="1">
-        <f>G39+G53+B71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59">
-        <f>G58/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="F60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="1">
-        <f>G58-G59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62">
-        <v>36.28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63">
-        <v>36.28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64">
-        <v>36.28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65">
-        <v>36.28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="1">
-        <f>SUMA(B60:B69)</f>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="1">
+        <f>SUMA(B56:B56)</f>
         <v>0</v>
       </c>
     </row>
